--- a/kinetic_datanator/data/InputTemplate.xlsx
+++ b/kinetic_datanator/data/InputTemplate.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Metabolites" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Reactions" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Taxon" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Molecules" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Reactions" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mycoplasma pneumoniae M129</t>
+  </si>
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -172,12 +179,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -261,6 +268,48 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -273,65 +322,65 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.9919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="74.5344129554656"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.03643724696356"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="76.5910931174089"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
+      <c r="A1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -345,14 +394,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -362,33 +411,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8218623481781"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3562753036437"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/kinetic_datanator/data/InputTemplate.xlsx
+++ b/kinetic_datanator/data/InputTemplate.xlsx
@@ -8,9 +8,10 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Taxon" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Molecules" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Reactions" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Genetics" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Compartments" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Species" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Reactions" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,15 +23,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+  <si>
+    <t xml:space="preserve">Taxon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mycoplasma pneumoniae M129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
   <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Mycoplasma pneumoniae M129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cytosol</t>
   </si>
   <si>
     <t xml:space="preserve">Structure</t>
@@ -268,19 +281,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -288,10 +301,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -306,6 +322,53 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -323,64 +386,64 @@
   <sheetFormatPr defaultRowHeight="12.95"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.03643724696356"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="76.5910931174089"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="77.2307692307692"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -394,7 +457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -412,32 +475,32 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.6356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
